--- a/outputs-HGR-r202-archive/g__Ruminiclostridium_E.xlsx
+++ b/outputs-HGR-r202-archive/g__Ruminiclostridium_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,119 +511,119 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13424.fa</t>
+          <t>even_MAG-GUT15133.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3477973936808684</v>
+        <v>0.4024698181257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2889569736438019</v>
+        <v>0.2060626742173678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3618244390096953</v>
+        <v>0.3908487360967418</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00142119366563439</v>
+        <v>0.0006187715601903843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3618244390096953</v>
+        <v>0.4024698181257</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15133.fa</t>
+          <t>even_MAG-GUT15498.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4024698181257</v>
+        <v>0.3282160453475403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2060626742173678</v>
+        <v>0.3547292357380847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3908487360967418</v>
+        <v>0.3161639649189547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006187715601903843</v>
+        <v>0.0008907539954202521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4024698181257</v>
+        <v>0.3547292357380847</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15498.fa</t>
+          <t>even_MAG-GUT19642.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3282160453475403</v>
+        <v>0.3376075154972693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3547292357380847</v>
+        <v>0.2322717597476105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3161639649189547</v>
+        <v>0.4296839108506142</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008907539954202521</v>
+        <v>0.0004368139045058062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3547292357380847</v>
+        <v>0.4296839108506142</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19642.fa</t>
+          <t>even_MAG-GUT23266.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3376075154972693</v>
+        <v>0.3332234692288309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2322717597476105</v>
+        <v>0.2523818176966874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4296839108506142</v>
+        <v>0.4141206072321752</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004368139045058062</v>
+        <v>0.0002741058423064925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4296839108506142</v>
+        <v>0.4141206072321752</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,87 +639,87 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23266.fa</t>
+          <t>even_MAG-GUT25605.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3332234692288309</v>
+        <v>0.0510820158485189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2523818176966874</v>
+        <v>0.8046780573565296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4141206072321752</v>
+        <v>0.1441786432687622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002741058423064925</v>
+        <v>6.128352618917112e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4141206072321752</v>
+        <v>0.8046780573565296</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24142.fa</t>
+          <t>even_MAG-GUT28034.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3809112816143419</v>
+        <v>0.1504529780005437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2152622787807222</v>
+        <v>0.6580748025260983</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4032933364570278</v>
+        <v>0.1884720493000806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005331031479081325</v>
+        <v>0.003000170173277567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4032933364570278</v>
+        <v>0.6580748025260983</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25605.fa</t>
+          <t>even_MAG-GUT28050.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0510820158485189</v>
+        <v>0.02617400355089373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8046780573565296</v>
+        <v>0.8325730392393762</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1441786432687622</v>
+        <v>0.1407473187917891</v>
       </c>
       <c r="E9" t="n">
-        <v>6.128352618917112e-05</v>
+        <v>0.0005056384179410287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8046780573565296</v>
+        <v>0.8325730392393762</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28034.fa</t>
+          <t>even_MAG-GUT28054.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1504529780005437</v>
+        <v>0.02135370698582649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6580748025260983</v>
+        <v>0.8365168860683927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1884720493000806</v>
+        <v>0.141905660197864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003000170173277567</v>
+        <v>0.0002237467479167629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6580748025260983</v>
+        <v>0.8365168860683927</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28050.fa</t>
+          <t>even_MAG-GUT28806.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02617400355089373</v>
+        <v>0.1753812533774798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8325730392393762</v>
+        <v>0.4635224637706761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1407473187917891</v>
+        <v>0.3597330295394804</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005056384179410287</v>
+        <v>0.001363253312363544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8325730392393762</v>
+        <v>0.4635224637706761</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -792,158 +792,158 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28054.fa</t>
+          <t>even_MAG-GUT32667.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02135370698582649</v>
+        <v>0.355078210419028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8365168860683927</v>
+        <v>0.2380240369564816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.141905660197864</v>
+        <v>0.39853988456225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002237467479167629</v>
+        <v>0.008357868062240439</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8365168860683927</v>
+        <v>0.39853988456225</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28806.fa</t>
+          <t>even_MAG-GUT32970.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1753812533774798</v>
+        <v>0.3911632267893399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4635224637706761</v>
+        <v>0.1671081127244001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3597330295394804</v>
+        <v>0.4407248633104248</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001363253312363544</v>
+        <v>0.001003797175835247</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4635224637706761</v>
+        <v>0.4407248633104248</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2965.fa</t>
+          <t>even_MAG-GUT33386.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3011522708733939</v>
+        <v>0.3971937662900585</v>
       </c>
       <c r="C14" t="n">
-        <v>0.40991921046481</v>
+        <v>0.2497056650483504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2886847312176535</v>
+        <v>0.3525810919774212</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000243787444142574</v>
+        <v>0.000519476684169843</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40991921046481</v>
+        <v>0.3971937662900585</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32667.fa</t>
+          <t>even_MAG-GUT35918.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.355078210419028</v>
+        <v>0.448070115850667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2380240369564816</v>
+        <v>0.2521776542785342</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39853988456225</v>
+        <v>0.2991900154107598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008357868062240439</v>
+        <v>0.0005622144600389874</v>
       </c>
       <c r="F15" t="n">
-        <v>0.39853988456225</v>
+        <v>0.448070115850667</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32970.fa</t>
+          <t>even_MAG-GUT37563.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3911632267893399</v>
+        <v>0.4226494733881467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1671081127244001</v>
+        <v>0.1516411518304583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4407248633104248</v>
+        <v>0.4249098267879867</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001003797175835247</v>
+        <v>0.0007995479934082878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4407248633104248</v>
+        <v>0.4249098267879867</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,55 +959,55 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33386.fa</t>
+          <t>even_MAG-GUT38587.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3971937662900585</v>
+        <v>0.4259242416784714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2497056650483504</v>
+        <v>0.1342631812809901</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3525810919774212</v>
+        <v>0.4390429520590908</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000519476684169843</v>
+        <v>0.0007696249814479871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3971937662900585</v>
+        <v>0.4390429520590908</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35918.fa</t>
+          <t>even_MAG-GUT40028.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.448070115850667</v>
+        <v>0.3656871161752649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2521776542785342</v>
+        <v>0.3285020672951066</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2991900154107598</v>
+        <v>0.303954563977211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005622144600389874</v>
+        <v>0.001856252552417652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.448070115850667</v>
+        <v>0.3656871161752649</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,87 +1023,87 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37563.fa</t>
+          <t>even_MAG-GUT40517.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4226494733881467</v>
+        <v>0.03194383152941036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1516411518304583</v>
+        <v>0.8041366466555919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4249098267879867</v>
+        <v>0.1591379098941214</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0007995479934082878</v>
+        <v>0.00478161192087636</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4249098267879867</v>
+        <v>0.8041366466555919</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38587.fa</t>
+          <t>even_MAG-GUT42066.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4259242416784714</v>
+        <v>0.0122706602750828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1342631812809901</v>
+        <v>0.8767192052729935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4390429520590908</v>
+        <v>0.1109790299039261</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007696249814479871</v>
+        <v>3.110454799750794e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4390429520590908</v>
+        <v>0.8767192052729935</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40028.fa</t>
+          <t>even_MAG-GUT47843.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3656871161752649</v>
+        <v>0.4670303739991963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3285020672951066</v>
+        <v>0.1472384775656827</v>
       </c>
       <c r="D21" t="n">
-        <v>0.303954563977211</v>
+        <v>0.3844799026970672</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001856252552417652</v>
+        <v>0.00125124573805373</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3656871161752649</v>
+        <v>0.4670303739991963</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1119,55 +1119,55 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40517.fa</t>
+          <t>even_MAG-GUT50480.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03194383152941036</v>
+        <v>0.2186951137162859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8041366466555919</v>
+        <v>0.2827347467065369</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1591379098941214</v>
+        <v>0.4973113025013069</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00478161192087636</v>
+        <v>0.001258837075870223</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8041366466555919</v>
+        <v>0.4973113025013069</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42066.fa</t>
+          <t>even_MAG-GUT50492.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0122706602750828</v>
+        <v>0.1791220887851581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8767192052729935</v>
+        <v>0.4387635822395822</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1109790299039261</v>
+        <v>0.3816360444481416</v>
       </c>
       <c r="E23" t="n">
-        <v>3.110454799750794e-05</v>
+        <v>0.0004782845271179077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8767192052729935</v>
+        <v>0.4387635822395822</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1176,350 +1176,350 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47843.fa</t>
+          <t>even_MAG-GUT50502.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4670303739991963</v>
+        <v>0.2186951137162859</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1472384775656827</v>
+        <v>0.2827347467065369</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3844799026970672</v>
+        <v>0.4973113025013069</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00125124573805373</v>
+        <v>0.001258837075870223</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4670303739991963</v>
+        <v>0.4973113025013069</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50480.fa</t>
+          <t>even_MAG-GUT50505.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2186951137162859</v>
+        <v>0.1804962232120422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2827347467065369</v>
+        <v>0.4343904845486748</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4973113025013069</v>
+        <v>0.3847964841810346</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001258837075870223</v>
+        <v>0.0003168080582483128</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4973113025013069</v>
+        <v>0.4343904845486748</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50492.fa</t>
+          <t>even_MAG-GUT50627.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1791220887851581</v>
+        <v>0.3767326899519984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4387635822395822</v>
+        <v>0.2612843606095207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3816360444481416</v>
+        <v>0.3605551221415295</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004782845271179077</v>
+        <v>0.001427827296951524</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4387635822395822</v>
+        <v>0.3767326899519984</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50502.fa</t>
+          <t>even_MAG-GUT50752.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2186951137162859</v>
+        <v>0.3206617109599629</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2827347467065369</v>
+        <v>0.4357956071510073</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4973113025013069</v>
+        <v>0.2432322816149843</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001258837075870223</v>
+        <v>0.0003104002740454103</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4973113025013069</v>
+        <v>0.4357956071510073</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50505.fa</t>
+          <t>even_MAG-GUT51949.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1804962232120422</v>
+        <v>0.1805887177896718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4343904845486748</v>
+        <v>0.3688601806923012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3847964841810346</v>
+        <v>0.4493614373905992</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003168080582483128</v>
+        <v>0.00118966412742778</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4343904845486748</v>
+        <v>0.4493614373905992</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50627.fa</t>
+          <t>even_MAG-GUT51968.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3767326899519984</v>
+        <v>0.1475514845955659</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2612843606095207</v>
+        <v>0.4487882257691851</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3605551221415295</v>
+        <v>0.4033824038115872</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001427827296951524</v>
+        <v>0.0002778858236617741</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3767326899519984</v>
+        <v>0.4487882257691851</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50752.fa</t>
+          <t>even_MAG-GUT51975.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3206617109599629</v>
+        <v>0.2853342258295088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4357956071510073</v>
+        <v>0.3175823588126492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2432322816149843</v>
+        <v>0.3959023638725714</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003104002740454103</v>
+        <v>0.001181051485270447</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4357956071510073</v>
+        <v>0.3959023638725714</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51949.fa</t>
+          <t>even_MAG-GUT51979.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1805887177896718</v>
+        <v>0.1698736298881936</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3688601806923012</v>
+        <v>0.4393499800999636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4493614373905992</v>
+        <v>0.3905149779055658</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00118966412742778</v>
+        <v>0.0002614121062768244</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4493614373905992</v>
+        <v>0.4393499800999636</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51968.fa</t>
+          <t>even_MAG-GUT53418.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1475514845955659</v>
+        <v>0.4522879649353956</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4487882257691851</v>
+        <v>0.1299582891942892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4033824038115872</v>
+        <v>0.4167821315067333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002778858236617741</v>
+        <v>0.0009716143635819078</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4487882257691851</v>
+        <v>0.4522879649353956</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51975.fa</t>
+          <t>even_MAG-GUT65584.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2853342258295088</v>
+        <v>0.4323097841881426</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3175823588126492</v>
+        <v>0.2719324709152209</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3959023638725714</v>
+        <v>0.2942650424239374</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001181051485270447</v>
+        <v>0.001492702472698858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3959023638725714</v>
+        <v>0.4323097841881426</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51979.fa</t>
+          <t>even_MAG-GUT67741.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1698736298881936</v>
+        <v>0.09100502470147326</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4393499800999636</v>
+        <v>0.5205251768487343</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3905149779055658</v>
+        <v>0.3880562807482352</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002614121062768244</v>
+        <v>0.0004135177015571135</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4393499800999636</v>
+        <v>0.5205251768487343</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1528,30 +1528,30 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525(reject)</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52871.fa</t>
+          <t>even_MAG-GUT73157.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3744348964694801</v>
+        <v>0.2201029497495956</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2104064015860647</v>
+        <v>0.3282913345322239</v>
       </c>
       <c r="D35" t="n">
-        <v>0.414683913584299</v>
+        <v>0.4505376975918236</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0004747883601562252</v>
+        <v>0.001068018126356886</v>
       </c>
       <c r="F35" t="n">
-        <v>0.414683913584299</v>
+        <v>0.4505376975918236</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,87 +1567,87 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52881.fa</t>
+          <t>even_MAG-GUT83184.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1547002732277064</v>
+        <v>0.4436778748245513</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7513331327149442</v>
+        <v>0.1355631374354461</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09180141598002274</v>
+        <v>0.4192072008383581</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002165178077326635</v>
+        <v>0.001551786901644572</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7513331327149442</v>
+        <v>0.4436778748245513</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53199.fa</t>
+          <t>even_MAG-GUT83542.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4165037016730442</v>
+        <v>0.02561849909704547</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1618633747990972</v>
+        <v>0.81079909635769</v>
       </c>
       <c r="D37" t="n">
-        <v>0.421386603736927</v>
+        <v>0.1635309310546905</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0002463197909315219</v>
+        <v>5.147349057391848e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.421386603736927</v>
+        <v>0.81079909635769</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53418.fa</t>
+          <t>even_MAG-GUT85016.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4522879649353956</v>
+        <v>0.3772446880562197</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1299582891942892</v>
+        <v>0.2793995595866283</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4167821315067333</v>
+        <v>0.3429216295983188</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0009716143635819078</v>
+        <v>0.0004341227588333595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4522879649353956</v>
+        <v>0.3772446880562197</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65584.fa</t>
+          <t>even_MAG-GUT85046.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4323097841881426</v>
+        <v>0.371606811856053</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2719324709152209</v>
+        <v>0.2813617380652955</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2942650424239374</v>
+        <v>0.3468594304402179</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001492702472698858</v>
+        <v>0.0001720196384334934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4323097841881426</v>
+        <v>0.371606811856053</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1695,414 +1695,190 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67741.fa</t>
+          <t>even_MAG-GUT85059.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.09100502470147326</v>
+        <v>0.4238881827091596</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5205251768487343</v>
+        <v>0.189388818938141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3880562807482352</v>
+        <v>0.3862484252986353</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0004135177015571135</v>
+        <v>0.0004745730540640663</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5205251768487343</v>
+        <v>0.4238881827091596</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73157.fa</t>
+          <t>even_MAG-GUT85068.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2201029497495956</v>
+        <v>0.4572269555378684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3282913345322239</v>
+        <v>0.2121125648804438</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4505376975918236</v>
+        <v>0.3303266270432172</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001068018126356886</v>
+        <v>0.0003338525384707424</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4505376975918236</v>
+        <v>0.4572269555378684</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
+          <t>s__Ruminiclostridium_E siraeum</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83184.fa</t>
+          <t>even_MAG-GUT85264.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4436778748245513</v>
+        <v>0.3673409791309344</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1355631374354461</v>
+        <v>0.2416845719166285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4192072008383581</v>
+        <v>0.3904127813302679</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001551786901644572</v>
+        <v>0.0005616676221691079</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4436778748245513</v>
+        <v>0.3904127813302679</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83542.fa</t>
+          <t>even_MAG-GUT86368.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02561849909704547</v>
+        <v>0.3682752620873997</v>
       </c>
       <c r="C43" t="n">
-        <v>0.81079909635769</v>
+        <v>0.2155957331536303</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1635309310546905</v>
+        <v>0.4151122053349402</v>
       </c>
       <c r="E43" t="n">
-        <v>5.147349057391848e-05</v>
+        <v>0.001016799424029861</v>
       </c>
       <c r="F43" t="n">
-        <v>0.81079909635769</v>
+        <v>0.4151122053349402</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84054.fa</t>
+          <t>even_MAG-GUT87904.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.458741284647838</v>
+        <v>0.368154181773373</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1501437759045879</v>
+        <v>0.2548403696340849</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3900081464944474</v>
+        <v>0.3697117633642315</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00110679295312674</v>
+        <v>0.007293685228310666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.458741284647838</v>
+        <v>0.3697117633642315</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp900539195</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85016.fa</t>
+          <t>even_MAG-GUT87994.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3772446880562197</v>
+        <v>0.2675332585210404</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2793995595866283</v>
+        <v>0.3837795435052945</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3429216295983188</v>
+        <v>0.3367476576619235</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004341227588333595</v>
+        <v>0.01193954031174142</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3772446880562197</v>
+        <v>0.3837795435052945</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
+          <t>s__Ruminiclostridium_E sp003512525</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85046.fa</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.371606811856053</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.2813617380652955</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.3468594304402179</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.0001720196384334934</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.371606811856053</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85059.fa</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.4238881827091596</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.189388818938141</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3862484252986353</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0004745730540640663</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.4238881827091596</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85068.fa</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4572269555378684</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.2121125648804438</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.3303266270432172</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0003338525384707424</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.4572269555378684</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E siraeum</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85264.fa</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.3673409791309344</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.2416845719166285</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3904127813302679</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0005616676221691079</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.3904127813302679</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86368.fa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.3682752620873997</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.2155957331536303</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4151122053349402</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.001016799424029861</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.4151122053349402</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87904.fa</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.368154181773373</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.2548403696340849</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.3697117633642315</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.007293685228310666</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.3697117633642315</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp900539195</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87994.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2675332585210404</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.3837795435052945</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.3367476576619235</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.01193954031174142</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.3837795435052945</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>s__Ruminiclostridium_E sp003512525</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>s__Ruminiclostridium_E sp003512525(reject)</t>
         </is>
